--- a/medicine/Enfance/Sophie_Curtil/Sophie_Curtil.xlsx
+++ b/medicine/Enfance/Sophie_Curtil/Sophie_Curtil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sophie Curtil (née en 1949) est une artiste plasticienne, graveuse, éditrice et illustratrice française, notamment en littérature jeunesse.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née à Paris, Sophie Curtil rencontre l'art assez jeune. Elle fréquente à partir de 6 ans l’atelier de peinture d’Arnó Stern. La visite de nombreux musées et de nombreuses expositions aiguisent son goût pour la peinture. L'univers de Paul Cézanne a notamment eu un gros impact sur elle[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née à Paris, Sophie Curtil rencontre l'art assez jeune. Elle fréquente à partir de 6 ans l’atelier de peinture d’Arnó Stern. La visite de nombreux musées et de nombreuses expositions aiguisent son goût pour la peinture. L'univers de Paul Cézanne a notamment eu un gros impact sur elle.
 Elle suit des études à Prague, dans l’atelier de gravure de l’Académie des Beaux-Arts. Puis elle ouvre un atelier de peinture pour enfants. De retour à Paris, elle travaille à l’Atelier des enfants du Centre Pompidou et au Musée national d'Art moderne.
-Elle travaille au Centre Pompidou, où elle devient notamment directrice de collection[4],[5].
-Elle est mariée avec l'artiste tchèque Milos Cvach[6].
+Elle travaille au Centre Pompidou, où elle devient notamment directrice de collection,.
+Elle est mariée avec l'artiste tchèque Milos Cvach.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle a beaucoup exposé[7] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Elle a beaucoup exposé :
 1976 : Cité Internationale des Arts, Paris
 1977 : Cité Internationale des Arts, Paris
 1979 : Entrepôt Villette, Paris
@@ -626,7 +642,9 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Elle a obtenu plusieurs prix, notamment :
 Le Prix Sorcières en 1990, pour Giacometti, Centre Pompidou</t>
@@ -657,18 +675,89 @@
           <t>Ouvrages illustrés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Elle a participé à de nombreuses œuvres en tant qu’Illustratrice ou auteure[8],[9],[10], dont :
-Bibliophilie
-1989 – Frontispice (50 exemplaires) pour Cascades, par Vera Linhartova, Friedenauer Presse, Berlin Edition de gravures (25 exemplaires), Revue K, Paris
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a participé à de nombreuses œuvres en tant qu’Illustratrice ou auteure dont :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sophie_Curtil</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Curtil</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ouvrages illustrés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bibliophilie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1989 – Frontispice (50 exemplaires) pour Cascades, par Vera Linhartova, Friedenauer Presse, Berlin Edition de gravures (25 exemplaires), Revue K, Paris
 1990 – Frontispice (30 exemplaires) pour l'Effacement du nom, par Jean-Claude Schneider, Edition Hôtel Continental, Plancoët
 1992 – Soleil de minuit, portfolio de six gravures, texte de Vera Linhartova, design de Jan Cincera, édition à compte d'auteur (10 exemplaires)
 1999 – Intervention plastique sur un exemplaire du livre Le cuisinier de Warburton par Annie Zadek, Editions de Minuit, pour la Galerie Mathieu, Lyon
 2001 – Participation au portfolio Saints and Sinners, Washington D.C., USA
-2004 – 25 dessins originaux pour les exemplaires de tête de Rebonds, d'une œuvre à l'autre par Sophie Curtil et Miloš Cvach, Edition du Pin, Fabras
-Livres jeunesse
-1985 – Jeu de cubes, Centre Georges Pompidou, Edition Asco, Juziers
+2004 – 25 dessins originaux pour les exemplaires de tête de Rebonds, d'une œuvre à l'autre par Sophie Curtil et Miloš Cvach, Edition du Pin, Fabras</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sophie_Curtil</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Curtil</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ouvrages illustrés</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Livres jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1985 – Jeu de cubes, Centre Georges Pompidou, Edition Asco, Juziers
 1985-1998 – Conception et co-direction de la collection l'ART EN JEU, Edition Centre Pompidou ; Auteure des titres :
 " Les Grands plongeurs noirs ", Fernand Léger, 1985
 Jean Arp, Pépin Géant, 1987
